--- a/agile_artifacts/SprintBurnDown.xlsx
+++ b/agile_artifacts/SprintBurnDown.xlsx
@@ -1,41 +1,186 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr updateLinks="always"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\school_code\CST-247-Project\agile_artifacts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\gcu.edu\home\HomeDrive\andrew.silver\profile\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27CF1D54-0B2D-47BB-A032-E7B47938D1A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="11385" xr2:uid="{8866F3F1-5DE4-42AB-826D-82D67BF29B9B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12885"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Burn Down Chart" sheetId="1" r:id="rId1"/>
+    <sheet name="How To Use" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Day 10</t>
+  </si>
+  <si>
+    <t>Day 8</t>
+  </si>
+  <si>
+    <t>Day 7</t>
+  </si>
+  <si>
+    <t>Day 6</t>
+  </si>
+  <si>
+    <t>Day 5</t>
+  </si>
+  <si>
+    <t>Day 4</t>
+  </si>
+  <si>
+    <t>Day 3</t>
+  </si>
+  <si>
+    <t>Day 2</t>
+  </si>
+  <si>
+    <t>Day 1</t>
+  </si>
+  <si>
+    <t>Ideal - Remaining efforts in uninterrupted working hours</t>
+  </si>
+  <si>
+    <t>Actual - Remaining efforts in uninterrupted working hours</t>
+  </si>
+  <si>
+    <t>Estimate</t>
+  </si>
+  <si>
+    <t>Project Title:
+Release #:
+Sprint #:</t>
+  </si>
+  <si>
+    <t>User Story ID</t>
+  </si>
+  <si>
+    <t>Assigned To</t>
+  </si>
+  <si>
+    <t>Team Member</t>
+  </si>
+  <si>
+    <t>Task 1</t>
+  </si>
+  <si>
+    <t>Task 2</t>
+  </si>
+  <si>
+    <t>Task 3</t>
+  </si>
+  <si>
+    <t>Task 4</t>
+  </si>
+  <si>
+    <t>Task 5</t>
+  </si>
+  <si>
+    <t>Task 6</t>
+  </si>
+  <si>
+    <t>Task 7</t>
+  </si>
+  <si>
+    <t>Task 8</t>
+  </si>
+  <si>
+    <t>Task 9</t>
+  </si>
+  <si>
+    <t>Task 10</t>
+  </si>
+  <si>
+    <t>User Story</t>
+  </si>
+  <si>
+    <t>As a(n) &lt;actor&gt; I would like to &lt;description&gt;</t>
+  </si>
+  <si>
+    <t>Step 1</t>
+  </si>
+  <si>
+    <t>Hold a Sprint Planning meeting on Day 1 of of your Sprint where you will complete or update your User Stories as well as (re)prioritize your User Stories in your Product Back Log (ideally this should be done for the next 3-4 Sprints)</t>
+  </si>
+  <si>
+    <t>Step 2</t>
+  </si>
+  <si>
+    <t>Copy the User Stories you plan to complete for this Sprint into your Sprint Back Log</t>
+  </si>
+  <si>
+    <t>Step 3</t>
+  </si>
+  <si>
+    <t>Copy the User Stories you plan to complete from your Sprint Back Log into Column C</t>
+  </si>
+  <si>
+    <t>Step 4</t>
+  </si>
+  <si>
+    <t>Break the User Story into a series of step by step development tasks in Column D</t>
+  </si>
+  <si>
+    <t>Step 5</t>
+  </si>
+  <si>
+    <t>Estimate the User Story (in 1, 2, 4 or 8 Effort Man Hours) in Column F and if the task is larger than 8 hours break the User Story into multiple User Stories</t>
+  </si>
+  <si>
+    <t>Step 6</t>
+  </si>
+  <si>
+    <t>Assign the User Story to a single Team Member in Column E</t>
+  </si>
+  <si>
+    <t>Step 7</t>
+  </si>
+  <si>
+    <t>Repeat steps 4-6 for each User Story that has been planned for this Sprint</t>
+  </si>
+  <si>
+    <t>Step 8</t>
+  </si>
+  <si>
+    <t>At the end of each day each Team Member should update the effort hours that were worked on their User Story to burn their work down</t>
+  </si>
+  <si>
+    <t>Step 9</t>
+  </si>
+  <si>
+    <t>After each Daily Standup each Team Member should review the Burn Down Chart to ensure your Sprint will be delivered on time</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -43,16 +188,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -60,12 +238,71 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -81,6 +318,474 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Burn down chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Ideal burndown</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Sheet1!$F$5:$O$5</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Day 10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Day 7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Day 6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Day 5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Day 4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Day 3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Day 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet1!$F$19:$O$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Actual burndown</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Sheet1!$F$5:$O$5</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Day 10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Day 7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Day 6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Day 5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Day 4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Day 3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Day 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet1!$F$20:$O$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="358301936"/>
+        <c:axId val="358299976"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="358301936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="358299976"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="358299976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="358301936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>514351</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="5">
+          <cell r="F5" t="str">
+            <v>Day 10</v>
+          </cell>
+          <cell r="G5" t="str">
+            <v>Day 9</v>
+          </cell>
+          <cell r="H5" t="str">
+            <v>Day 8</v>
+          </cell>
+          <cell r="I5" t="str">
+            <v>Day 7</v>
+          </cell>
+          <cell r="J5" t="str">
+            <v>Day 6</v>
+          </cell>
+          <cell r="K5" t="str">
+            <v>Day 5</v>
+          </cell>
+          <cell r="L5" t="str">
+            <v>Day 4</v>
+          </cell>
+          <cell r="M5" t="str">
+            <v>Day 3</v>
+          </cell>
+          <cell r="N5" t="str">
+            <v>Day 2</v>
+          </cell>
+          <cell r="O5" t="str">
+            <v>Day 1</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="F19">
+            <v>27</v>
+          </cell>
+          <cell r="G19">
+            <v>24</v>
+          </cell>
+          <cell r="H19">
+            <v>21</v>
+          </cell>
+          <cell r="I19">
+            <v>18</v>
+          </cell>
+          <cell r="J19">
+            <v>15</v>
+          </cell>
+          <cell r="K19">
+            <v>12</v>
+          </cell>
+          <cell r="L19">
+            <v>9</v>
+          </cell>
+          <cell r="M19">
+            <v>6</v>
+          </cell>
+          <cell r="N19">
+            <v>3</v>
+          </cell>
+          <cell r="O19">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="F20">
+            <v>29</v>
+          </cell>
+          <cell r="G20">
+            <v>27</v>
+          </cell>
+          <cell r="H20">
+            <v>21</v>
+          </cell>
+          <cell r="I20">
+            <v>21</v>
+          </cell>
+          <cell r="J20">
+            <v>17</v>
+          </cell>
+          <cell r="K20">
+            <v>17</v>
+          </cell>
+          <cell r="L20">
+            <v>11</v>
+          </cell>
+          <cell r="M20">
+            <v>6</v>
+          </cell>
+          <cell r="N20">
+            <v>6</v>
+          </cell>
+          <cell r="O20">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -100,7 +805,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -112,7 +817,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -129,9 +834,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -159,31 +864,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -211,23 +899,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -379,15 +1050,1561 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF1D55D-F0C0-4D4A-BED7-2F05F7B7D26B}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13" style="8" customWidth="1"/>
+    <col min="3" max="3" width="21" style="8" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="4">
+        <v>20</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>2</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <v>4</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
+        <v>2</v>
+      </c>
+      <c r="N4" s="4">
+        <v>5</v>
+      </c>
+      <c r="O4" s="4">
+        <v>0</v>
+      </c>
+      <c r="P4" s="4">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="4">
+        <v>10</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>2</v>
+      </c>
+      <c r="I5" s="4">
+        <v>4</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
+        <v>4</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0</v>
+      </c>
+      <c r="O5" s="4">
+        <v>0</v>
+      </c>
+      <c r="P5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4">
+        <v>0</v>
+      </c>
+      <c r="P6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0</v>
+      </c>
+      <c r="O7" s="4">
+        <v>0</v>
+      </c>
+      <c r="P7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+    </row>
+    <row r="8" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="7">
+        <v>2</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0</v>
+      </c>
+      <c r="O8" s="4">
+        <v>0</v>
+      </c>
+      <c r="P8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4">
+        <v>0</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0</v>
+      </c>
+      <c r="O9" s="4">
+        <v>0</v>
+      </c>
+      <c r="P9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4">
+        <v>0</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0</v>
+      </c>
+      <c r="O10" s="4">
+        <v>0</v>
+      </c>
+      <c r="P10" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+    </row>
+    <row r="11" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="7">
+        <v>3</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0</v>
+      </c>
+      <c r="M11" s="4">
+        <v>0</v>
+      </c>
+      <c r="N11" s="4">
+        <v>0</v>
+      </c>
+      <c r="O11" s="4">
+        <v>0</v>
+      </c>
+      <c r="P11" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+    </row>
+    <row r="12" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="7">
+        <v>4</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
+        <v>0</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0</v>
+      </c>
+      <c r="O12" s="4">
+        <v>0</v>
+      </c>
+      <c r="P12" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+    </row>
+    <row r="13" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="7">
+        <v>5</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4">
+        <v>0</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0</v>
+      </c>
+      <c r="O13" s="4">
+        <v>0</v>
+      </c>
+      <c r="P13" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="4">
+        <f>SUM(F4:F13)</f>
+        <v>30</v>
+      </c>
+      <c r="G14" s="4">
+        <f>F14-$F$14/10</f>
+        <v>27</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" ref="H14:P14" si="0">G14-$F$14/10</f>
+        <v>24</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="L14" s="4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="M14" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="N14" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="O14" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="P14" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="4">
+        <f>SUM(F4:F13)</f>
+        <v>30</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" ref="G15:P15" si="1">F15 - SUM(G4:G13)</f>
+        <v>29</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="L15" s="4">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="M15" s="4">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="N15" s="4">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="O15" s="4">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="P15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C© 2016. Grand Canyon University. All Rights Reserved</oddHeader>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="228" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+    </row>
+    <row r="11" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+    </row>
+    <row r="12" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+    </row>
+    <row r="13" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+    </row>
+    <row r="14" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+    </row>
+    <row r="15" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+    </row>
+    <row r="16" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+    </row>
+    <row r="17" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+    </row>
+    <row r="18" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+    </row>
+    <row r="19" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+    </row>
+    <row r="20" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+    </row>
+    <row r="21" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+    </row>
+    <row r="22" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+    </row>
+    <row r="23" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+    </row>
+    <row r="24" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<customXsn xmlns="http://schemas.microsoft.com/office/2006/metadata/customXsn">
+  <xsnLocation/>
+  <cached>True</cached>
+  <openByDefault>False</openByDefault>
+  <xsnScope/>
+</customXsn>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events"/>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B9FDC2B66788A044965A7B8958E6244A" ma:contentTypeVersion="1251" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6c2c36359d71eb747fbb188f75fc8d29">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="d6188da8-f31e-469a-aed4-03a23c44e36a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="08acee74153637279a480e75df712a71" ns1:_="" ns2:_="">
+    <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
+    <xsd:import namespace="d6188da8-f31e-469a-aed4-03a23c44e36a"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyProperties" minOccurs="0"/>
+                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyUIAction" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="_ip_UnifiedCompliancePolicyProperties" ma:index="13" nillable="true" ma:displayName="Unified Compliance Policy Properties" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyProperties">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_ip_UnifiedCompliancePolicyUIAction" ma:index="14" nillable="true" ma:displayName="Unified Compliance Policy UI Action" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyUIAction">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d6188da8-f31e-469a-aed4-03a23c44e36a" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="11" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="12" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="15" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="16" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="17" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D6E300D-687F-49DD-9C99-AC5EA1BE3BF7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B20B8EA-C8C4-49B1-8280-945BA6550F81}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/customXsn"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D14C1044-F523-4937-BF47-727729F19EA1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA975265-C41C-4191-AC8E-A5AD70B8A3C6}"/>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90C1BE12-9AF4-4D82-8933-6D42A4A8E2C9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="30a82cfc-8d0b-455e-b705-4035c60ff9fd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>